--- a/docs/CareConnect-Condition-1.xlsx
+++ b/docs/CareConnect-Condition-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -1325,6 +1325,12 @@
   </si>
   <si>
     <t>Condition.stage.summary.coding.extension</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>Condition.stage.summary.coding.system</t>
@@ -6591,7 +6597,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>41</v>
@@ -8191,7 +8197,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -10848,10 +10854,10 @@
         <v>309</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>99</v>
+        <v>416</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10923,7 +10929,7 @@
         <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -10934,7 +10940,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11050,7 +11056,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11164,7 +11170,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11278,7 +11284,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11392,7 +11398,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11508,7 +11514,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11624,7 +11630,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11647,13 +11653,13 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11704,7 +11710,7 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11725,7 +11731,7 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11736,7 +11742,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11762,13 +11768,13 @@
         <v>391</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11818,7 +11824,7 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -11830,7 +11836,7 @@
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -11839,7 +11845,7 @@
         <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>41</v>
@@ -11850,7 +11856,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11962,7 +11968,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12076,7 +12082,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12190,7 +12196,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12216,10 +12222,10 @@
         <v>144</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12249,10 +12255,10 @@
         <v>291</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12270,7 +12276,7 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12279,7 +12285,7 @@
         <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
@@ -12291,10 +12297,10 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -12302,7 +12308,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12325,13 +12331,13 @@
         <v>53</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12382,7 +12388,7 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12391,7 +12397,7 @@
         <v>43</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
@@ -12403,10 +12409,10 @@
         <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -12414,7 +12420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12437,13 +12443,13 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12494,7 +12500,7 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
@@ -12512,10 +12518,10 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>41</v>
@@ -12526,7 +12532,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12638,7 +12644,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12752,7 +12758,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12775,13 +12781,13 @@
         <v>53</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12832,7 +12838,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12853,7 +12859,7 @@
         <v>95</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>41</v>
@@ -12864,7 +12870,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12890,10 +12896,10 @@
         <v>376</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12944,7 +12950,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -12965,7 +12971,7 @@
         <v>95</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>41</v>
@@ -12976,7 +12982,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13002,10 +13008,10 @@
         <v>123</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13056,7 +13062,7 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>52</v>
@@ -13077,7 +13083,7 @@
         <v>95</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>41</v>

--- a/docs/CareConnect-Condition-1.xlsx
+++ b/docs/CareConnect-Condition-1.xlsx
@@ -1662,17 +1662,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.5390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.70703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1683,22 +1683,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-Condition-1.xlsx
+++ b/docs/CareConnect-Condition-1.xlsx
@@ -1662,17 +1662,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="69.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1683,22 +1683,22 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.37109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.8515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="65.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="65.78515625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="213.0390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="37.70703125" customWidth="true" bestFit="true"/>
